--- a/sw/PIC_pin_allocation.xlsx
+++ b/sw/PIC_pin_allocation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">Pin number </t>
   </si>
@@ -57,12 +57,24 @@
     <t>O</t>
   </si>
   <si>
+    <t>WATER_LEVEL_ADC_PIN</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
     <t>LED1_FB</t>
   </si>
   <si>
+    <t>WATER_LEVEL_BOYE</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
@@ -81,9 +93,6 @@
     <t>LED0_PG</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>A5</t>
   </si>
   <si>
@@ -99,9 +108,6 @@
     <t>LED1_CURR</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>B1</t>
   </si>
   <si>
@@ -168,6 +174,9 @@
     <t>C5</t>
   </si>
   <si>
+    <t>SHIELD_ON_PIN*</t>
+  </si>
+  <si>
     <t>C6</t>
   </si>
   <si>
@@ -181,6 +190,9 @@
   </si>
   <si>
     <t>MLCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* = WPU</t>
   </si>
 </sst>
 </file>
@@ -306,9 +318,7 @@
         <color theme="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -337,7 +347,9 @@
         <color theme="1"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -345,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -369,17 +381,20 @@
     </xf>
     <xf fontId="1" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -965,7 +980,7 @@
     <col customWidth="1" min="8" max="8" width="17.8515625"/>
     <col customWidth="1" min="9" max="9" width="5.421875"/>
     <col customWidth="1" min="10" max="10" style="1" width="5.00390625"/>
-    <col customWidth="1" min="11" max="11" width="17.8515625"/>
+    <col customWidth="1" min="11" max="11" width="22.00390625"/>
     <col customWidth="1" min="12" max="12" width="6.00390625"/>
     <col customWidth="1" min="13" max="13" width="4.28125"/>
     <col customWidth="1" min="15" max="16" width="5.140625"/>
@@ -1077,107 +1092,121 @@
       <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H4"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15"/>
+      <c r="K4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="16"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="16"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="16"/>
+      <c r="K5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="19"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="16"/>
+      <c r="K6" s="19"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="16"/>
+      <c r="N6" s="19"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="1"/>
       <c r="E7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="16"/>
+      <c r="K7" s="19"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="16"/>
+      <c r="N7" s="19"/>
       <c r="P7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="1"/>
       <c r="E8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>22</v>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="16"/>
+      <c r="K8" s="19"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="16"/>
+      <c r="N8" s="19"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1185,14 +1214,14 @@
       <c r="F9" s="10"/>
       <c r="G9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="16"/>
+      <c r="K9" s="19"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="16"/>
+      <c r="N9" s="19"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -1200,410 +1229,417 @@
       <c r="F10" s="10"/>
       <c r="G10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="16"/>
+      <c r="K10" s="19"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="16"/>
+      <c r="N10" s="19"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="17"/>
+      <c r="A11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="20"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="1"/>
       <c r="E12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="16"/>
+      <c r="K12" s="19"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="16"/>
+      <c r="N12" s="19"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="1"/>
       <c r="E13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="16"/>
+      <c r="K13" s="19"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="16"/>
+      <c r="N13" s="19"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="K14" s="19"/>
       <c r="M14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="N14" s="19"/>
       <c r="P14" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>22</v>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="K15" s="19"/>
       <c r="M15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="N15" s="19"/>
       <c r="P15" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="K16" s="19"/>
       <c r="M16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="N16" s="19"/>
       <c r="P16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="1"/>
       <c r="E17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>22</v>
+      <c r="G17" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="16"/>
+      <c r="K17" s="19"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="16"/>
+      <c r="N17" s="19"/>
       <c r="P17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="1"/>
       <c r="F18" s="10"/>
       <c r="G18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="16"/>
+      <c r="K18" s="19"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="16"/>
+      <c r="N18" s="19"/>
       <c r="P18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="21" t="s">
+      <c r="A19" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="17"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="20"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="1"/>
       <c r="F20" s="10"/>
       <c r="G20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="16"/>
+      <c r="K20" s="19"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="16"/>
+      <c r="N20" s="19"/>
       <c r="P20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="1"/>
       <c r="F21" s="10"/>
       <c r="G21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="16"/>
+      <c r="K21" s="19"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="16"/>
+      <c r="N21" s="19"/>
       <c r="P21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>22</v>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="K22" s="19"/>
       <c r="M22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N22" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="N22" s="19"/>
       <c r="P22" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="K23" s="19"/>
       <c r="M23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N23" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="N23" s="19"/>
       <c r="P23" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="1"/>
       <c r="F24" s="10"/>
       <c r="G24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="16"/>
+      <c r="K24" s="19"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="16"/>
+      <c r="N24" s="19"/>
       <c r="P24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="1"/>
       <c r="F25" s="10"/>
       <c r="G25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="16"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="16"/>
+      <c r="K25" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="19"/>
       <c r="P25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="1"/>
       <c r="F26" s="10"/>
       <c r="G26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="16"/>
+      <c r="K26" s="19"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="16"/>
+      <c r="N26" s="19"/>
       <c r="P26" s="1"/>
     </row>
     <row r="27">
-      <c r="A27" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" s="20" t="s">
+      <c r="A27" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="21" t="s">
+      <c r="J27" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="19"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="17"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="20"/>
     </row>
     <row r="28">
-      <c r="A28" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N28" s="19"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="17" t="s">
-        <v>33</v>
+      <c r="A28" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" s="22"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="N28" s="22"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="20" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="29">
@@ -1612,6 +1648,9 @@
       <c r="C29" s="10"/>
       <c r="G29" s="1"/>
       <c r="J29" s="1"/>
+      <c r="K29" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="10"/>
